--- a/Trabalho 2.xlsx
+++ b/Trabalho 2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVIDIA\Desktop\Engenharia de Software\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Nome do Caso de Uso</t>
   </si>
   <si>
-    <t>Gerenciar Imóveis</t>
-  </si>
-  <si>
     <t>Ator principal</t>
   </si>
   <si>
@@ -59,34 +51,34 @@
     <t xml:space="preserve">                                                                                                                                   </t>
   </si>
   <si>
-    <t>Administrador</t>
-  </si>
-  <si>
     <t>Usuarios</t>
   </si>
   <si>
-    <t>Este caso de uso descreve as estapas que um Administrador do sistema percorre junto ao sistema para realizar a importação de um arquivo para cadastro de usuarios em lote</t>
-  </si>
-  <si>
-    <t>2.Analisar Formato do arquivo e os dados contidos nele e exibe ao administrador a lista de usuarios contidas no arquivo</t>
-  </si>
-  <si>
-    <t>3. Confirma os usuarios que estão presentes na lista</t>
-  </si>
-  <si>
     <t>1. Informar ao sistema o caminho do arquivo com os dados do usuario com os dados nome, sobrenome, email separados por ponto e vírgula com cada usuario descrito em uma linha</t>
   </si>
   <si>
     <t>4. Solicita ao Administrador por meio da interface a senha e o departamento dos usuarios</t>
   </si>
   <si>
-    <t>5. Fornece ao sistema através da interface departamento e senha padrão para os usuarios</t>
-  </si>
-  <si>
     <t>6. Insere no banco de dados do sistema o cadastro dos usuarios</t>
   </si>
   <si>
     <t>O sistema deve estar no formato solicitado pelo Sistema: TXT</t>
+  </si>
+  <si>
+    <t>2.Analisar Formato do arquivo e os dados contidos nele e exibe ao administrador a lista de usuarios contidas no arquivo e solicita confirmação por meio da interface ao usuario</t>
+  </si>
+  <si>
+    <t>3. Confirma por meio da interface os usuarios que estão presentes na lista</t>
+  </si>
+  <si>
+    <t>5. Fornece ao sistema através da interface departamento e senha padrão para os usuarios e confirmar a inserção dos usuarios no sistema</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve as estapas que um usuario do sistema percorre junto ao sistema para realizar a importação de um arquivo para cadastros em lote</t>
+  </si>
+  <si>
+    <t>Cadastro de Usuario</t>
   </si>
 </sst>
 </file>
@@ -209,62 +201,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -326,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,7 +351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,7 +528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,7 +539,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:N6"/>
+      <selection activeCell="I13" sqref="I13:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,320 +549,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="5" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -883,47 +860,46 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="32">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:N2"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="D3:N3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:N4"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="I12:N12"/>
     <mergeCell ref="A5:C6"/>
